--- a/UserStudies/tempSensing/peltiers/AllData.xlsx
+++ b/UserStudies/tempSensing/peltiers/AllData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="18195" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="user06" localSheetId="0">Sheet1!$B$65:$H$79</definedName>
     <definedName name="user07" localSheetId="0">Sheet1!$B$81:$H$95</definedName>
     <definedName name="user08" localSheetId="0">Sheet1!$B$97:$H$111</definedName>
+    <definedName name="user09" localSheetId="0">Sheet1!$B$113:$I$127</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -103,11 +104,25 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="8" name="user09" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user09.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="13">
   <si>
     <t>RIGHT</t>
   </si>
@@ -130,10 +145,24 @@
     <t>Feedback Second</t>
   </si>
   <si>
-    <t>Average time of no feedback with feedback first Vs Second</t>
+    <t>Average of correct</t>
   </si>
   <si>
-    <t>Average of correct</t>
+    <t>Average time of last 6 
+with feedback first Vs Second</t>
+  </si>
+  <si>
+    <t>Average time of no feedback
+with feedback first Vs Second</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -183,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,15 +225,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,6 +302,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Time</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$18:$J$29</c:f>
@@ -273,40 +312,93 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>125.07503157142855</c:v>
+                  <c:v>115.14869450012499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.610045143428565</c:v>
+                  <c:v>65.389340000499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.103820285714292</c:v>
+                  <c:v>69.474016375000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.011328714571434</c:v>
+                  <c:v>61.852658250250002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.498684142999998</c:v>
+                  <c:v>58.383148500250002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.104014285714285</c:v>
+                  <c:v>51.827225374999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.39894671457143</c:v>
+                  <c:v>44.914830250250006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.453698999714291</c:v>
+                  <c:v>60.825421875000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.44382085685713</c:v>
+                  <c:v>68.08333637474999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.122526856857135</c:v>
+                  <c:v>54.763986624874995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.318789571428574</c:v>
+                  <c:v>42.353288125000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.191316857571429</c:v>
+                  <c:v>33.321015250500004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>accuracy</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$18:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,11 +415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="206870016"/>
-        <c:axId val="206871552"/>
+        <c:axId val="202659328"/>
+        <c:axId val="202660864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206870016"/>
+        <c:axId val="202659328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206871552"/>
+        <c:crossAx val="202660864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -344,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206871552"/>
+        <c:axId val="202660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206870016"/>
+        <c:crossAx val="202659328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -381,16 +473,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -413,31 +505,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito02_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user05" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user05" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito02_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,34 +823,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="10">
+      <c r="B1" s="11">
         <v>41916</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -771,11 +869,11 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <f>AVERAGE(A2:A13,A18:A29,A34:A45,A50:A61,A66:A77,A82:A93,A98:A109)</f>
-        <v>0.7857142857142857</v>
+        <f>AVERAGE(A2:A13,A18:A29,A34:A45,A50:A61,A66:A77,A82:A93,A98:A109,A114:A125)</f>
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -954,19 +1052,20 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
         <v>41918</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="I17" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="I17" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>IF(B18="RIGHT",1,0)</f>
         <v>1</v>
@@ -981,11 +1080,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <f>AVERAGE(C2,C18,C34,C50,C66,C82,C98)</f>
-        <v>125.07503157142855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f>AVERAGE(C2,C18,C34,C50,C66,C82,C98,C114)</f>
+        <v>115.14869450012499</v>
+      </c>
+      <c r="K18" s="5">
+        <f>AVERAGE(A2,A18,A34,A50,A66,A82,A98,A114)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ref="A19:A86" si="1">IF(B19="RIGHT",1,0)</f>
         <v>1</v>
@@ -1000,11 +1103,15 @@
         <v>2</v>
       </c>
       <c r="J19" s="5">
-        <f>AVERAGE(C3,C19,C35,C51,C67,C83,C99)</f>
-        <v>69.610045143428565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f>AVERAGE(C3,C19,C35,C51,C67,C83,C99,C115)</f>
+        <v>65.389340000499999</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" ref="K19:K29" si="2">AVERAGE(A3,A19,A35,A51,A67,A83,A99,A115)*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1019,11 +1126,15 @@
         <v>3</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20:J29" si="2">AVERAGE(C4,C20,C36,C52,C68,C84,C100)</f>
-        <v>69.103820285714292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f>AVERAGE(C4,C20,C36,C52,C68,C84,C100,C116)</f>
+        <v>69.474016375000005</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1041,11 +1152,15 @@
         <v>4</v>
       </c>
       <c r="J21" s="5">
+        <f>AVERAGE(C5,C21,C37,C53,C69,C85,C101,C117)</f>
+        <v>61.852658250250002</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="2"/>
-        <v>68.011328714571434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1060,11 +1175,15 @@
         <v>5</v>
       </c>
       <c r="J22" s="5">
+        <f>AVERAGE(C6,C22,C38,C54,C70,C86,C102,C118)</f>
+        <v>58.383148500250002</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="2"/>
-        <v>61.498684142999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1079,11 +1198,15 @@
         <v>6</v>
       </c>
       <c r="J23" s="5">
+        <f>AVERAGE(C7,C23,C39,C55,C71,C87,C103,C119)</f>
+        <v>51.827225374999998</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="2"/>
-        <v>55.104014285714285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1098,11 +1221,15 @@
         <v>7</v>
       </c>
       <c r="J24" s="5">
+        <f>AVERAGE(C8,C24,C40,C56,C72,C88,C104,C120)</f>
+        <v>44.914830250250006</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>48.39894671457143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1117,11 +1244,15 @@
         <v>8</v>
       </c>
       <c r="J25" s="5">
+        <f>AVERAGE(C9,C25,C41,C57,C73,C89,C105,C121)</f>
+        <v>60.825421875000004</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="2"/>
-        <v>67.453698999714291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1136,11 +1267,15 @@
         <v>9</v>
       </c>
       <c r="J26" s="5">
+        <f>AVERAGE(C10,C26,C42,C58,C74,C90,C106,C122)</f>
+        <v>68.08333637474999</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="2"/>
-        <v>73.44382085685713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1155,11 +1290,15 @@
         <v>10</v>
       </c>
       <c r="J27" s="5">
+        <f>AVERAGE(C11,C27,C43,C59,C75,C91,C107,C123)</f>
+        <v>54.763986624874995</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="2"/>
-        <v>56.122526856857135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1174,11 +1313,15 @@
         <v>11</v>
       </c>
       <c r="J28" s="5">
+        <f>AVERAGE(C12,C28,C44,C60,C76,C92,C108,C124)</f>
+        <v>42.353288125000006</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="2"/>
-        <v>44.318789571428574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1193,11 +1336,15 @@
         <v>12</v>
       </c>
       <c r="J29" s="5">
+        <f>AVERAGE(C13,C29,C45,C61,C77,C93,C109,C125)</f>
+        <v>33.321015250500004</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="2"/>
-        <v>35.191316857571429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f>AVERAGE(A18:A29)</f>
         <v>0.91666666666666663</v>
@@ -1207,7 +1354,7 @@
         <v>91.8931345835</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>2</v>
       </c>
@@ -1215,21 +1362,23 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+    <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
         <v>41918</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1241,15 +1390,17 @@
         <v>72.969046999</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="5">
-        <f>AVERAGE(C2:C13,C34:C45,C66:C77,C98:C109)</f>
-        <v>67.943781604125022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1262,27 +1413,42 @@
       </c>
       <c r="D35" s="2"/>
       <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="5">
+        <f>AVERAGE(C2:C13,C34:C45,C66:C77,C98:C109,C114:C125)</f>
+        <v>60.977884016733356</v>
+      </c>
+      <c r="K35" s="13">
+        <f>AVERAGE(A34:A45,A66:A77,A98:A109,A114:A125)</f>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>57.014270001</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="I36" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J36" s="5">
         <f>AVERAGE(C18:C29,C50:C61,C82:C93)</f>
         <v>59.778406972444436</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>57.014270001</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="13">
+        <f>AVERAGE(A18:A29,A50:A61,A82:A93)</f>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1294,11 +1460,9 @@
         <v>22.499779</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1312,15 +1476,13 @@
       <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="I38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="5">
-        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C104:C109)</f>
-        <v>56.234492708291661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1334,39 +1496,63 @@
       <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>31.095159000999999</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="5">
+        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C104:C109,C120:C125)</f>
+        <v>50.307305133433324</v>
+      </c>
+      <c r="K40" s="13">
+        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A104:A109,A120:A125)</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>103.752273</v>
+      </c>
+      <c r="I41" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J41" s="5">
         <f>AVERAGE(C18:C23,C50:C55,C82:C87)</f>
         <v>68.174820944888907</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
-        <v>31.095159000999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>103.752273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="13">
+        <f>AVERAGE(A18:A23,A50:A55,A82:A87)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1380,8 +1566,9 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1392,8 +1579,13 @@
       <c r="C43" s="5">
         <v>39.643432998999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1404,8 +1596,17 @@
       <c r="C44" s="5">
         <v>31.277451998</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1416,8 +1617,19 @@
       <c r="C45" s="5">
         <v>27.375624000999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="5">
+        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C104:C109,C120:C125)</f>
+        <v>50.307305133433324</v>
+      </c>
+      <c r="K45" s="13">
+        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A104:A109,A120:A125)</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <f>AVERAGE(A34:A45)</f>
         <v>0.75</v>
@@ -1426,8 +1638,19 @@
         <f>AVERAGE(C34:C45)</f>
         <v>46.274415916666662</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="5">
+        <f>AVERAGE(C24:C29,C56:C61,C88:C93)</f>
+        <v>51.381992999999994</v>
+      </c>
+      <c r="K46" s="13">
+        <f>AVERAGE(A24:A29,A56:A61,A88:A93)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>2</v>
       </c>
@@ -1439,15 +1662,15 @@
       <c r="H47" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="B49" s="10">
         <v>41918</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1627,15 +1850,15 @@
       <c r="H63" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+      <c r="B65" s="10">
         <v>41919</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -1820,15 +2043,15 @@
       <c r="H79" s="9"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+      <c r="B81" s="10">
         <v>41918</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2007,15 +2230,15 @@
       <c r="H95" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
+      <c r="B97" s="10">
         <v>41919</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -2193,14 +2416,200 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>41920</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" ref="A114:A125" si="4">IF(B114="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>45.664335000999998</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <v>35.844403999999997</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>72.065388999999996</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>18.741965</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>36.574399001000003</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>28.889703000000001</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>20.526015000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>14.427482002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>30.559944999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5">
+        <v>45.254205001000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="5">
+        <v>28.594778000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="5">
+        <v>20.228904001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <f>AVERAGE(A114:A125)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C126" s="6">
+        <f>AVERAGE(C114:C125)</f>
+        <v>33.114293667166663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:H33"/>
+  <mergeCells count="20">
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B97:H97"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="B49:H49"/>
@@ -2209,6 +2618,12 @@
     <mergeCell ref="B79:H79"/>
     <mergeCell ref="B81:H81"/>
     <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStudies/tempSensing/peltiers/AllData.xlsx
+++ b/UserStudies/tempSensing/peltiers/AllData.xlsx
@@ -12,14 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="tito02_1" localSheetId="0">Sheet1!$B$1:$H$15</definedName>
-    <definedName name="tito03" localSheetId="0">Sheet1!$B$17:$F$31</definedName>
-    <definedName name="user01" localSheetId="0">Sheet1!$B$33:$H$47</definedName>
-    <definedName name="user05" localSheetId="0">Sheet1!$B$49:$H$63</definedName>
-    <definedName name="user06" localSheetId="0">Sheet1!$B$65:$H$79</definedName>
-    <definedName name="user07" localSheetId="0">Sheet1!$B$81:$H$95</definedName>
-    <definedName name="user08" localSheetId="0">Sheet1!$B$97:$H$111</definedName>
+    <definedName name="tito03" localSheetId="0">Sheet1!$B$1:$F$15</definedName>
+    <definedName name="user01" localSheetId="0">Sheet1!$B$17:$H$31</definedName>
+    <definedName name="user05" localSheetId="0">Sheet1!$B$33:$H$47</definedName>
+    <definedName name="user06" localSheetId="0">Sheet1!$B$49:$H$63</definedName>
+    <definedName name="user07" localSheetId="0">Sheet1!$B$65:$H$79</definedName>
+    <definedName name="user08" localSheetId="0">Sheet1!$B$81:$H$95</definedName>
     <definedName name="user09" localSheetId="0">Sheet1!$B$113:$I$127</definedName>
+    <definedName name="user10" localSheetId="0">Sheet1!$A$113:$H$127</definedName>
+    <definedName name="user11" localSheetId="0">Sheet1!$A$129:$H$143</definedName>
+    <definedName name="User12" localSheetId="0">Sheet1!$A$145:$H$159</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -27,31 +29,32 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tito02" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\tito02.txt" space="1" consecutive="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
+  <connection id="1" name="tito03" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\tito03.txt" space="1" consecutive="1">
+      <textFields count="3">
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="tito03" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\tito03.txt" space="1" consecutive="1">
-      <textFields count="3">
+  <connection id="2" name="user01" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user01.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="user01" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user01.txt" space="1" consecutive="1">
-      <textFields count="8">
-        <textField/>
-        <textField/>
+  <connection id="3" name="user05" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user05.txt" space="1" consecutive="1">
+      <textFields count="6">
         <textField/>
         <textField/>
         <textField/>
@@ -61,10 +64,9 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="user05" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user05.txt" space="1" consecutive="1">
-      <textFields count="6">
-        <textField/>
+  <connection id="4" name="user06" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user06.txt" space="1" consecutive="1">
+      <textFields count="5">
         <textField/>
         <textField/>
         <textField/>
@@ -73,29 +75,32 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="user06" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user06.txt" space="1" consecutive="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
+  <connection id="5" name="user07" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user07.txt" space="1" consecutive="1">
+      <textFields count="3">
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="user07" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user07.txt" space="1" consecutive="1">
-      <textFields count="3">
+  <connection id="6" name="user08" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user08.txt" space="1" consecutive="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="user08" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user08.txt" space="1" consecutive="1">
-      <textFields count="5">
+  <connection id="7" name="user09" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user09.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -104,11 +109,37 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="user09" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user09.txt" space="1" consecutive="1">
+  <connection id="8" name="user10" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user10.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
         <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="user11" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\user11.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="User12" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\TitoAlfaro\Documents\PhDThesis\UserStudies\tempSensing\peltiers\RawData\User12.txt" space="1" consecutive="1">
+      <textFields count="6">
         <textField/>
         <textField/>
         <textField/>
@@ -122,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
   <si>
     <t>RIGHT</t>
   </si>
@@ -163,6 +194,12 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>No Feedback</t>
+  </si>
+  <si>
+    <t>Average time of feedback  Vs no feedback</t>
   </si>
 </sst>
 </file>
@@ -212,35 +249,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,13 +314,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Time per Turn</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time per Turn</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -305,6 +334,107 @@
           <c:tx>
             <c:v>Time</c:v>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$18:$K$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>28.639389426751926</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.637529178176916</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21.64263018033202</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.635485036203669</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>30.293027155863655</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.543792392954392</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.440152765840804</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>32.698707840354906</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>32.041905121932501</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.912623221654687</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12.246150111656249</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.1784939229479434</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$18:$K$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>28.639389426751926</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.637529178176916</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21.64263018033202</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.635485036203669</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>30.293027155863655</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.543792392954392</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.440152765840804</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>32.698707840354906</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>32.041905121932501</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.912623221654687</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>12.246150111656249</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.1784939229479434</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$18:$J$29</c:f>
@@ -312,40 +442,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>115.14869450012499</c:v>
+                  <c:v>78.488340800500012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.389340000499999</c:v>
+                  <c:v>73.39193080039999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.474016375000005</c:v>
+                  <c:v>68.446263400000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.852658250250002</c:v>
+                  <c:v>47.791718100200008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.383148500250002</c:v>
+                  <c:v>68.731177300100001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.827225374999998</c:v>
+                  <c:v>51.563719999899988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.914830250250006</c:v>
+                  <c:v>44.667718200099998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.825421875000004</c:v>
+                  <c:v>70.914055699999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.08333637474999</c:v>
+                  <c:v>82.229956299699992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.763986624874995</c:v>
+                  <c:v>52.610818099699998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.353288125000006</c:v>
+                  <c:v>33.978117499999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.321015250500004</c:v>
+                  <c:v>34.717644400499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,9 +488,110 @@
           <c:tx>
             <c:v>accuracy</c:v>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$18:$M$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.152294576982396</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21.081851067789191</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>24.152294576982396</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$18:$M$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.152294576982396</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21.081851067789191</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>25.819888974716111</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>24.152294576982396</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15.8113883008419</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$18:$K$29</c:f>
+              <c:f>Sheet1!$L$18:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -368,37 +599,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.5</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,11 +646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202659328"/>
-        <c:axId val="202660864"/>
+        <c:axId val="136873472"/>
+        <c:axId val="136875008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202659328"/>
+        <c:axId val="136873472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202660864"/>
+        <c:crossAx val="136875008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -436,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202660864"/>
+        <c:axId val="136875008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202659328"/>
+        <c:crossAx val="136873472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -473,16 +704,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -505,35 +736,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito02_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user05" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user10" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user05" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,128 +1062,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45:K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="11">
-        <v>41916</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="10">
+        <v>41918</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IF(B2="RIGHT",1,0)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>465.07247299900001</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>162.69293900100001</v>
+      </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2">
-        <f>AVERAGE(A2:A13,A18:A29,A34:A45,A50:A61,A66:A77,A82:A93,A98:A109,A114:A125)</f>
-        <v>0.80208333333333337</v>
+        <f>AVERAGE(A2:A13,A18:A29,A34:A45,A50:A61,A66:A77,A82:A93,A98:A109,A114:A125,A130:A141,A146:A157)</f>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A13" si="0">IF(B3="RIGHT",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <f t="shared" ref="A3:A70" si="0">IF(B3="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>105.511638</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>129.81360500100001</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>51.909295</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>140.96103500000001</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>180.700965</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>116.84305999999999</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>66.773313999999999</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>76.93159</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>57.530366000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
+        <v>57.324384000999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,11 +1180,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>99.198645999999997</v>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48.815916000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -964,26 +1192,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>80.109643998999999</v>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>68.875603999000006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>85.081676000000002</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>98.580536999000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -991,68 +1216,56 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>36.735478000999997</v>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.409263000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>78.282280001000004</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>97.960949001000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>47.957704</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70.508733000000007</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>AVERAGE(A2:A13)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C14" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C14" s="5">
         <f>AVERAGE(C2:C13)</f>
-        <v>112.90528991666667</v>
+        <v>91.8931345835</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>41918</v>
       </c>
@@ -1060,309 +1273,421 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>IF(B18="RIGHT",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>162.69293900100001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>72.969046999</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="5">
-        <f>AVERAGE(C2,C18,C34,C50,C66,C82,C98,C114)</f>
-        <v>115.14869450012499</v>
-      </c>
-      <c r="K18" s="5">
-        <f>AVERAGE(A2,A18,A34,A50,A66,A82,A98,A114)*100</f>
+      <c r="J18" s="4">
+        <f>AVERAGE($C2,$C18,$C34,$C50,$C66,$C82,$C98,$C114,$C130,$C146)</f>
+        <v>78.488340800500012</v>
+      </c>
+      <c r="K18" s="4">
+        <f>STDEV($C2,$C18,$C34,$C50,$C66,$C82,$C98,$C114,$C130,$C146)/2</f>
+        <v>28.639389426751926</v>
+      </c>
+      <c r="L18" s="4">
+        <f>AVERAGE($A2,$A18,$A34,$A50,$A66,$A82,$A98,$A114,$A130,$A146)*100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <f>STDEV($A2,$A18,$A34,$A50,$A66,$A82,$A98,$A114,$A130,$A146)*50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ref="A19:A86" si="1">IF(B19="RIGHT",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>129.81360500100001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>46.206031000000003</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="5">
-        <f>AVERAGE(C3,C19,C35,C51,C67,C83,C99,C115)</f>
-        <v>65.389340000499999</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" ref="K19:K29" si="2">AVERAGE(A3,A19,A35,A51,A67,A83,A99,A115)*100</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <f t="shared" ref="J19:J29" si="1">AVERAGE($C3,$C19,$C35,$C51,$C67,$C83,$C99,$C115,$C131,$C147)</f>
+        <v>73.39193080039999</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" ref="K19:K29" si="2">STDEV($C3,$C19,$C35,$C51,$C67,$C83,$C99,$C115,$C131,$C147)/2</f>
+        <v>19.637529178176916</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19:L29" si="3">AVERAGE($A3,$A19,$A35,$A51,$A67,$A83,$A99,$A115,$A131,$A147)*100</f>
+        <v>60</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" ref="M19:M29" si="4">STDEV($A3,$A19,$A35,$A51,$A67,$A83,$A99,$A115,$A131,$A147)*50</f>
+        <v>25.819888974716111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>140.96103500000001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>57.014270001</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" s="5">
-        <f>AVERAGE(C4,C20,C36,C52,C68,C84,C100,C116)</f>
-        <v>69.474016375000005</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>68.446263400000007</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21.64263018033202</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="4"/>
+        <v>15.8113883008419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>116.84305999999999</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22.499779</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="I21">
         <v>4</v>
       </c>
-      <c r="J21" s="5">
-        <f>AVERAGE(C5,C21,C37,C53,C69,C85,C101,C117)</f>
-        <v>61.852658250250002</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>47.791718100200008</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16.635485036203669</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="4"/>
+        <v>15.8113883008419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>76.93159</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28.963370001000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
       <c r="I22">
         <v>5</v>
       </c>
-      <c r="J22" s="5">
-        <f>AVERAGE(C6,C22,C38,C54,C70,C86,C102,C118)</f>
-        <v>58.383148500250002</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>68.731177300100001</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30.293027155863655</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="4"/>
+        <v>24.152294576982396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>57.324384000999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>58.437964000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
       </c>
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23" s="5">
-        <f>AVERAGE(C7,C23,C39,C55,C71,C87,C103,C119)</f>
-        <v>51.827225374999998</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>51.563719999899988</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13.543792392954392</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="4"/>
+        <v>21.081851067789191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="4">
-        <v>48.815916000000001</v>
+        <v>31.095159000999999</v>
       </c>
       <c r="I24">
         <v>7</v>
       </c>
-      <c r="J24" s="5">
-        <f>AVERAGE(C8,C24,C40,C56,C72,C88,C104,C120)</f>
-        <v>44.914830250250006</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>44.667718200099998</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11.440152765840804</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="4"/>
+        <v>25.819888974716111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <v>68.875603999000006</v>
+        <v>103.752273</v>
       </c>
       <c r="I25">
         <v>8</v>
       </c>
-      <c r="J25" s="5">
-        <f>AVERAGE(C9,C25,C41,C57,C73,C89,C105,C121)</f>
-        <v>60.825421875000004</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>70.914055699999992</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32.698707840354906</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="4"/>
+        <v>15.8113883008419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>98.580536999000003</v>
+        <v>36.058588999999998</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
-      <c r="J26" s="5">
-        <f>AVERAGE(C10,C26,C42,C58,C74,C90,C106,C122)</f>
-        <v>68.08333637474999</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>82.229956299699992</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32.041905121932501</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="4"/>
+        <v>25.819888974716111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="4">
-        <v>33.409263000000003</v>
+        <v>39.643432998999998</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
-      <c r="J27" s="5">
-        <f>AVERAGE(C11,C27,C43,C59,C75,C91,C107,C123)</f>
-        <v>54.763986624874995</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>52.610818099699998</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17.912623221654687</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="4"/>
+        <v>15.8113883008419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="4">
-        <v>97.960949001000003</v>
+        <v>31.277451998</v>
       </c>
       <c r="I28">
         <v>11</v>
       </c>
-      <c r="J28" s="5">
-        <f>AVERAGE(C12,C28,C44,C60,C76,C92,C108,C124)</f>
-        <v>42.353288125000006</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>33.978117499999996</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12.246150111656249</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="4"/>
+        <v>24.152294576982396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="4">
-        <v>70.508733000000007</v>
+        <v>27.375624000999998</v>
       </c>
       <c r="I29">
         <v>12</v>
       </c>
-      <c r="J29" s="5">
-        <f>AVERAGE(C13,C29,C45,C61,C77,C93,C109,C125)</f>
-        <v>33.321015250500004</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>34.717644400499999</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+        <v>9.1784939229479434</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="4"/>
+        <v>15.8113883008419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <f>AVERAGE(A18:A29)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C30" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="5">
         <f>AVERAGE(C18:C29)</f>
-        <v>91.8931345835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+        <v>46.274415916666662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="33" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>41918</v>
       </c>
@@ -1372,298 +1697,317 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="4">
-        <v>72.969046999</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="I34" s="8" t="s">
+        <v>26.879466001000001</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="7"/>
+      <c r="L34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
       </c>
       <c r="C35" s="4">
-        <v>46.206031000000003</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>38.632901001999997</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="5">
-        <f>AVERAGE(C2:C13,C34:C45,C66:C77,C98:C109,C114:C125)</f>
-        <v>60.977884016733356</v>
-      </c>
-      <c r="K35" s="13">
-        <f>AVERAGE(A34:A45,A66:A77,A98:A109,A114:A125)</f>
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f>AVERAGE(C18:C29,C50:C61,C82:C93,C98:C109,C114:C125,C130:C141)</f>
+        <v>62.011466361152785</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="8">
+        <f>AVERAGE(A18:A29,A50:A61,A82:A93,A98:A109,A114:A125,A130:A141)</f>
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>57.014270001</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>40.428919999000001</v>
+      </c>
       <c r="I36" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="5">
-        <f>AVERAGE(C18:C29,C50:C61,C82:C93)</f>
-        <v>59.778406972444436</v>
-      </c>
-      <c r="K36" s="13">
-        <f>AVERAGE(A18:A29,A50:A61,A82:A93)</f>
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f>AVERAGE(C2:C13,C34:C45,C66:C77,C146:C157)</f>
+        <v>54.385188083499976</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="8">
+        <f>AVERAGE(A2:A13,A34:A45,A66:A77,A146:A157)</f>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>22.499779</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.725550999999999</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>28.963370001000001</v>
-      </c>
-      <c r="D38" s="2">
-        <v>3</v>
-      </c>
-      <c r="I38" s="12" t="s">
+        <v>32.680228999999997</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
       </c>
       <c r="C39" s="4">
-        <v>58.437964000000001</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="I39" s="8" t="s">
+        <v>16.031256999</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="7"/>
+      <c r="L39" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
-        <v>31.095159000999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>36.384912999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="5">
-        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C104:C109,C120:C125)</f>
-        <v>50.307305133433324</v>
-      </c>
-      <c r="K40" s="13">
-        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A104:A109,A120:A125)</f>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f>AVERAGE(C24:C29,C56:C61,C88:C93,C104:C109,C120:C125,C136:C141)</f>
+        <v>58.007527583333321</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="8">
+        <f>AVERAGE(,A24:A29,A56:A61,A88:A93,A104:A109,A120:A125,A136:A141)</f>
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>103.752273</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>15.771283999</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="I41" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="5">
-        <f>AVERAGE(C18:C23,C50:C55,C82:C87)</f>
-        <v>68.174820944888907</v>
-      </c>
-      <c r="K41" s="13">
-        <f>AVERAGE(A18:A23,A50:A55,A82:A87)</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f>AVERAGE(C2:C7,C34:C39,C66:C71,C146:C151)</f>
+        <v>62.815704958666686</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="8">
+        <f>AVERAGE(A2:A7,A34:A39,A66:A71,A146:A151)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5">
-        <v>36.058588999999998</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>50.750672999999999</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5">
-        <v>39.643432998999998</v>
-      </c>
-      <c r="I43" s="12" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>25.191258999999999</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="I43" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>31.277451998</v>
-      </c>
-      <c r="I44" s="8" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>15.951537</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="I44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="7"/>
+      <c r="L44" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>27.375624000999998</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>18.163920001000001</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="I45" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="5">
-        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C104:C109,C120:C125)</f>
-        <v>50.307305133433324</v>
-      </c>
-      <c r="K45" s="13">
-        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A104:A109,A120:A125)</f>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
+      <c r="J45" s="4">
+        <f>AVERAGE(C24:C29,C56:C61,C88:C93,C104:C109,C120:C125,C136:C141)</f>
+        <v>58.007527583333321</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="8">
+        <f>AVERAGE(A24:A29,A56:A61,A88:A93,A104:A109,A120:A125,A136:A141)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <f>AVERAGE(A34:A45)</f>
-        <v>0.75</v>
-      </c>
-      <c r="C46" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C46" s="5">
         <f>AVERAGE(C34:C45)</f>
-        <v>46.274415916666662</v>
-      </c>
+        <v>27.965992500083331</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="I46" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="5">
-        <f>AVERAGE(C24:C29,C56:C61,C88:C93)</f>
-        <v>51.381992999999994</v>
-      </c>
-      <c r="K46" s="13">
-        <f>AVERAGE(A24:A29,A56:A61,A88:A93)</f>
+      <c r="J46" s="4">
+        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C146:C151)</f>
+        <v>50.221083999999998</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="8">
+        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A146:A151)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
-        <v>41918</v>
+        <v>41919</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1671,187 +2015,226 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>26.879466001000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>29.117722999000001</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="4">
+        <f>AVERAGE(C114:C119,C130:C135,C8:C13,C18:C23,C40:C45,C50:C55,C72:C77,C82:C87,C98:C103,C152:C157)</f>
+        <v>57.991111566716668</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="8">
+        <f>AVERAGE(A8:A13,A18:A23,A40:A45,A50:A55,A72:A77,A82:A87,A98:A103,A114:A119,A130:A135,A152:A157)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5">
-        <v>38.632901001999997</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>80.838234001000004</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4">
+        <f>AVERAGE(C120:C125,C136:C141,C2:C7,C24:C29,C34:C39,C56:C61,C66:C71,C88:C93,C104:C109,C146:C151)</f>
+        <v>59.930798533466678</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="8">
+        <f>AVERAGE(A2:A7,A24:A29,A34:A39,A56:A61,A66:A71,A88:A93,A104:A109,A120:A125,A136:A141,A146:A151)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="5">
-        <v>40.428919999000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>29.697707998999999</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="5">
-        <v>18.725550999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>75.876442002000005</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="5">
-        <v>32.680228999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>164.76137799899999</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="5">
-        <v>16.031256999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>111.822332999</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="4">
-        <v>36.384912999999997</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59.148685999999998</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="4">
-        <v>15.771283999</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160.44229900100001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
       </c>
       <c r="C58" s="4">
-        <v>50.750672999999999</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137.151149</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
       </c>
       <c r="C59" s="4">
-        <v>25.191258999999999</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91.983225997999995</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="4">
-        <v>15.951537</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26.906486999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="4">
-        <v>18.163920001000001</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
+        <v>41.536743000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
         <f>AVERAGE(A50:A61)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C62" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C62" s="5">
         <f>AVERAGE(C50:C61)</f>
-        <v>27.965992500083331</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+        <v>84.106867333166662</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
-        <v>41919</v>
+        <v>41918</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -1862,189 +2245,183 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="4">
-        <v>29.117722999000001</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>41.682116000999997</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="4">
-        <v>80.838234001000004</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>60.871422000000003</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B68" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="4">
-        <v>29.697707998999999</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>132.84420400100001</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="4">
-        <v>75.876442002000005</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>44.410429000000001</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
       </c>
       <c r="C70" s="4">
-        <v>164.76137799899999</v>
-      </c>
-      <c r="D70" s="2">
-        <v>3</v>
+        <v>51.206108000999997</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
+        <f t="shared" ref="A71:A93" si="5">IF(B71="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="4">
-        <v>111.822332999</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>38.187561000999999</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="5">
-        <v>59.148685999999998</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>27.555543001</v>
+      </c>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="5">
-        <v>160.44229900100001</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>37.341307</v>
+      </c>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="5">
-        <v>137.151149</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>58.980417000000003</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5">
-        <v>91.983225997999995</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>139.66777700099999</v>
+      </c>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="5">
-        <v>26.906486999999998</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45.574451998999997</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="5">
-        <v>41.536743000000001</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>35.39179</v>
+      </c>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <f>AVERAGE(A66:A77)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C78" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C78" s="5">
         <f>AVERAGE(C66:C77)</f>
-        <v>84.106867333166662</v>
-      </c>
+        <v>59.476093833749992</v>
+      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="10">
-        <v>41918</v>
+        <v>41919</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2055,184 +2432,185 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="5">
-        <v>41.682116000999997</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>77.111457000000001</v>
+      </c>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="5">
-        <v>60.871422000000003</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>25.396484999999998</v>
+      </c>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="5">
-        <v>132.84420400100001</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>30.871310000000001</v>
+      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="5">
-        <v>44.410429000000001</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>17.023074999999999</v>
+      </c>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="5">
-        <v>51.206108000999997</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9.1747999999999994</v>
+      </c>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A109" si="3">IF(B87="RIGHT",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="5">
-        <v>38.187561000999999</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>46.394235000000002</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="4">
-        <v>27.555543001</v>
-      </c>
-      <c r="D88" s="2"/>
+        <v>36.593764</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="4">
-        <v>37.341307</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>5.8834819999999999</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="4">
-        <v>58.980417000000003</v>
-      </c>
-      <c r="D90" s="2">
-        <v>1</v>
+        <v>47.503704999</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="4">
-        <v>139.66777700099999</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>26.227251999</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
       </c>
       <c r="C92" s="4">
-        <v>45.574451998999997</v>
-      </c>
-      <c r="D92" s="2">
-        <v>3</v>
+        <v>14.278370001000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B93" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="4">
-        <v>35.39179</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>5.4047040009999998</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <f>AVERAGE(A82:A93)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <f>AVERAGE(C82:C93)</f>
-        <v>59.476093833749992</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>28.488553249999999</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="10">
-        <v>41919</v>
-      </c>
+      <c r="A97" s="10">
+        <v>41920</v>
+      </c>
+      <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -2242,183 +2620,181 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="4">
-        <v>77.111457000000001</v>
-      </c>
-      <c r="D98" s="2"/>
+        <f t="shared" ref="A98:A109" si="6">IF(B98="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>45.664335000999998</v>
+      </c>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="4">
-        <v>25.396484999999998</v>
-      </c>
-      <c r="D99" s="2"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3">
+        <v>35.844403999999997</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="4">
-        <v>30.871310000000001</v>
-      </c>
-      <c r="D100" s="2"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>72.065388999999996</v>
+      </c>
+      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="4">
-        <v>17.023074999999999</v>
-      </c>
-      <c r="D101" s="2"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>18.741965</v>
+      </c>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="4">
-        <v>9.1747999999999994</v>
-      </c>
-      <c r="D102" s="2"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>36.574399001000003</v>
+      </c>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="4">
-        <v>46.394235000000002</v>
-      </c>
-      <c r="D103" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>28.889703000000001</v>
+      </c>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="5">
-        <v>36.593764</v>
+      <c r="C104" s="4">
+        <v>20.526015000000001</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B105" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="5">
-        <v>5.8834819999999999</v>
+      <c r="C105" s="4">
+        <v>14.427482002</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="5">
-        <v>47.503704999</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>30.559944999999999</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="5">
-        <v>26.227251999</v>
+      <c r="C107" s="4">
+        <v>45.254205001000003</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="5">
-        <v>14.278370001000001</v>
+      <c r="C108" s="4">
+        <v>28.594778000000002</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="5">
-        <v>5.4047040009999998</v>
+      <c r="C109" s="4">
+        <v>20.228904001</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <f>AVERAGE(A98:A109)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C110" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C110" s="5">
         <f>AVERAGE(C98:C109)</f>
-        <v>28.488553249999999</v>
+        <v>33.114293667166663</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
+      <c r="A111" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2430,200 +2806,603 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" ref="A114:A125" si="4">IF(B114="RIGHT",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="4">
-        <v>45.664335000999998</v>
-      </c>
-      <c r="D114" s="2"/>
+        <f t="shared" ref="A114:A125" si="7">IF(B114="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>101.038462</v>
+      </c>
+      <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="4">
-        <v>35.844403999999997</v>
-      </c>
-      <c r="D115" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>124.959490999</v>
+      </c>
+      <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="4">
-        <v>72.065388999999996</v>
-      </c>
-      <c r="D116" s="2"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>105.012147001</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="4">
-        <v>18.741965</v>
-      </c>
-      <c r="D117" s="2"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>54.883232</v>
+      </c>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="4">
-        <v>36.574399001000003</v>
-      </c>
-      <c r="D118" s="2"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3">
+        <v>190.97561400000001</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="4">
-        <v>28.889703000000001</v>
-      </c>
-      <c r="D119" s="2"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>59.581937998999997</v>
+      </c>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="5">
-        <v>20.526015000000001</v>
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>95.755117999000007</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="5">
-        <v>14.427482002</v>
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>197.59047499900001</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="5">
-        <v>30.559944999999999</v>
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>232.905996999</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="5">
-        <v>45.254205001000003</v>
+      <c r="C123" s="4">
+        <v>39.883929999000003</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="5">
-        <v>28.594778000000002</v>
+      <c r="C124" s="4">
+        <v>37.912599000999997</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
-      <c r="C125" s="5">
-        <v>20.228904001</v>
+      <c r="C125" s="4">
+        <v>49.367315001000001</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <f>AVERAGE(A114:A125)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C126" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C126" s="5">
         <f>AVERAGE(C114:C125)</f>
-        <v>33.114293667166663</v>
+        <v>107.48885983308334</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>41921</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" ref="A130:A141" si="8">IF(B130="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>190.87215700199999</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3">
+        <v>71.451014001000004</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>51.881968000000001</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3">
+        <v>76.593736000000007</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3">
+        <v>57.409770999000003</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3">
+        <v>69.939218999999994</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>63.840328999999997</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="4">
+        <v>75.798629000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>102.549474</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="4">
+        <v>45.023636000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>21.421959000000001</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4">
+        <v>44.367806000000002</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <f>AVERAGE(A130:A141)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C142" s="5">
+        <f>AVERAGE(C130:C141)</f>
+        <v>72.595808166833336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>41922</v>
+      </c>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" ref="A146:A157" si="9">IF(B146="RIGHT",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="4">
+        <v>36.855706001000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>119.905721</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="4">
+        <v>23.685682999000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="4">
+        <v>32.319912000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>38.634514000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>29.028606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="3">
+        <v>26.961739000000001</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="3">
+        <v>29.257722000000001</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>27.259077000000001</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="3">
+        <v>39.824199999999998</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="3">
+        <v>19.902591999999999</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="3">
+        <v>34.830905000000001</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <f>AVERAGE(A146:A157)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C158" s="5">
+        <f>AVERAGE(C146:C157)</f>
+        <v>38.205531416666673</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A127:H127"/>
+  <mergeCells count="25">
+    <mergeCell ref="A159:H159"/>
+    <mergeCell ref="A145:H145"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="B111:H111"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B47:H47"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="I48:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStudies/tempSensing/peltiers/AllData.xlsx
+++ b/UserStudies/tempSensing/peltiers/AllData.xlsx
@@ -167,9 +167,6 @@
     <t>Average time per turn</t>
   </si>
   <si>
-    <t>Average time VS Feedback</t>
-  </si>
-  <si>
     <t>Feedback first</t>
   </si>
   <si>
@@ -200,6 +197,10 @@
   </si>
   <si>
     <t>Average time of feedback  Vs no feedback</t>
+  </si>
+  <si>
+    <t>Average total time when feedback
+was first or second</t>
   </si>
 </sst>
 </file>
@@ -264,13 +265,13 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,11 +647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136873472"/>
-        <c:axId val="136875008"/>
+        <c:axId val="127846272"/>
+        <c:axId val="127847808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136873472"/>
+        <c:axId val="127846272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136875008"/>
+        <c:crossAx val="127847808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136875008"/>
+        <c:axId val="127847808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136873472"/>
+        <c:crossAx val="127846272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,11 +737,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,31 +749,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user10" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,7 +1066,7 @@
   <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,9 +1080,9 @@
     <col min="7" max="7" width="4.42578125" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
         <v>162.69293900100001</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <f>AVERAGE(A2:A13,A18:A29,A34:A45,A50:A61,A66:A77,A82:A93,A98:A109,A114:A125,A130:A141,A146:A157)</f>
@@ -1258,12 +1259,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
@@ -1275,10 +1276,10 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,17 +1678,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>41918</v>
       </c>
@@ -1698,11 +1699,11 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1716,14 +1717,14 @@
         <v>26.879466001000001</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="4">
         <f>AVERAGE(C18:C29,C50:C61,C82:C93,C98:C109,C114:C125,C130:C141)</f>
@@ -1765,7 +1766,7 @@
         <v>40.428919999000001</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="4">
         <f>AVERAGE(C2:C13,C34:C45,C66:C77,C146:C157)</f>
@@ -1801,12 +1802,12 @@
       <c r="C38" s="4">
         <v>32.680228999999997</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="I38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1820,14 +1821,14 @@
         <v>16.031256999</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" s="4">
         <f>AVERAGE(C24:C29,C56:C61,C88:C93,C104:C109,C120:C125,C136:C141)</f>
@@ -1870,7 +1871,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="4">
         <f>AVERAGE(C2:C7,C34:C39,C66:C71,C146:C151)</f>
@@ -1908,12 +1909,12 @@
         <v>25.191258999999999</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="I43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="I43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1928,14 +1929,14 @@
       </c>
       <c r="D44" s="1"/>
       <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1951,7 +1952,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="I45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" s="4">
         <f>AVERAGE(C24:C29,C56:C61,C88:C93,C104:C109,C120:C125,C136:C141)</f>
@@ -1974,7 +1975,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="4">
         <f>AVERAGE(C8:C13,C40:C45,C72:C77,C146:C151)</f>
@@ -1982,28 +1983,28 @@
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="8">
-        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A146:A151)</f>
+        <f>AVERAGE(A8:A13,A40:A45,A72:A77,A152:A157)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="I48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
@@ -2016,14 +2017,14 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2039,7 +2040,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="I50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" s="4">
         <f>AVERAGE(C114:C119,C130:C135,C8:C13,C18:C23,C40:C45,C50:C55,C72:C77,C82:C87,C98:C103,C152:C157)</f>
@@ -2064,7 +2065,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="4">
         <f>AVERAGE(C120:C125,C136:C141,C2:C7,C24:C29,C34:C39,C56:C61,C66:C71,C88:C93,C104:C109,C146:C151)</f>
@@ -2222,15 +2223,15 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
@@ -2409,15 +2410,15 @@
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="10">
@@ -2596,15 +2597,15 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
@@ -2781,16 +2782,16 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
@@ -3176,16 +3177,16 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
@@ -3365,19 +3366,28 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A111:H111"/>
     <mergeCell ref="A159:H159"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="I17:J17"/>
@@ -3391,18 +3401,9 @@
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B79:H79"/>
     <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A111:H111"/>
     <mergeCell ref="I43:L43"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="I48:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStudies/tempSensing/peltiers/AllData.xlsx
+++ b/UserStudies/tempSensing/peltiers/AllData.xlsx
@@ -176,10 +176,6 @@
     <t>Average of correct</t>
   </si>
   <si>
-    <t>Average time of last 6 
-with feedback first Vs Second</t>
-  </si>
-  <si>
     <t>Average time of no feedback
 with feedback first Vs Second</t>
   </si>
@@ -201,6 +197,9 @@
   <si>
     <t>Average total time when feedback
 was first or second</t>
+  </si>
+  <si>
+    <t>Time and Accuracy of the last 6 turns, with and without feedback</t>
   </si>
 </sst>
 </file>
@@ -270,11 +269,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,11 +646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127846272"/>
-        <c:axId val="127847808"/>
+        <c:axId val="125905536"/>
+        <c:axId val="125915520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127846272"/>
+        <c:axId val="125905536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127847808"/>
+        <c:crossAx val="125915520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127847808"/>
+        <c:axId val="125915520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127846272"/>
+        <c:crossAx val="125905536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,11 +736,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,31 +748,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user10" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,8 +1697,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="11" t="s">
-        <v>14</v>
+      <c r="I33" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1717,14 +1716,14 @@
         <v>26.879466001000001</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1802,12 +1801,12 @@
       <c r="C38" s="4">
         <v>32.680228999999997</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="I38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1821,14 +1820,14 @@
         <v>16.031256999</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1909,12 +1908,12 @@
         <v>25.191258999999999</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="I43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="I43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1929,14 +1928,14 @@
       </c>
       <c r="D44" s="1"/>
       <c r="I44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1952,7 +1951,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="I45" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J45" s="4">
         <f>AVERAGE(C24:C29,C56:C61,C88:C93,C104:C109,C120:C125,C136:C141)</f>
@@ -1975,11 +1974,11 @@
       </c>
       <c r="D46" s="1"/>
       <c r="I46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J46" s="4">
-        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C146:C151)</f>
-        <v>50.221083999999998</v>
+        <f>AVERAGE(C8:C13,C40:C45,C72:C77,C152:C157)</f>
+        <v>45.95467120833333</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="8">
@@ -1999,12 +1998,12 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
+      <c r="I48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
@@ -2017,14 +2016,14 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,7 +2039,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="I50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J50" s="4">
         <f>AVERAGE(C114:C119,C130:C135,C8:C13,C18:C23,C40:C45,C50:C55,C72:C77,C82:C87,C98:C103,C152:C157)</f>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" s="4">
         <f>AVERAGE(C120:C125,C136:C141,C2:C7,C24:C29,C34:C39,C56:C61,C66:C71,C88:C93,C104:C109,C146:C151)</f>
@@ -2979,16 +2978,16 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
@@ -3379,15 +3378,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A111:H111"/>
     <mergeCell ref="A159:H159"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="I17:J17"/>
@@ -3404,6 +3394,15 @@
     <mergeCell ref="I43:L43"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A111:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UserStudies/tempSensing/peltiers/AllData.xlsx
+++ b/UserStudies/tempSensing/peltiers/AllData.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="16">
   <si>
     <t>RIGHT</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Time and Accuracy of the last 6 turns, with and without feedback</t>
+  </si>
+  <si>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -269,11 +272,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,11 +649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125905536"/>
-        <c:axId val="125915520"/>
+        <c:axId val="86046976"/>
+        <c:axId val="86056960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125905536"/>
+        <c:axId val="86046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125915520"/>
+        <c:crossAx val="86056960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -667,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125915520"/>
+        <c:axId val="86056960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125905536"/>
+        <c:crossAx val="86046976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,11 +739,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user10" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,31 +751,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tito03" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user07" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user09" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="User12" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user10" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user11" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user08" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user06" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,6 +1689,17 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="4">
+        <f>CORREL(I18:I29,J18:J29)</f>
+        <v>-0.58259696849646969</v>
+      </c>
+      <c r="K31" s="4">
+        <f>CORREL(I18:I29,K18:K29)</f>
+        <v>-0.33307845149748194</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
@@ -1697,7 +1711,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="9"/>
@@ -1801,12 +1815,12 @@
       <c r="C38" s="4">
         <v>32.680228999999997</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1908,12 +1922,12 @@
         <v>25.191258999999999</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1998,12 +2012,12 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
@@ -2978,16 +2992,16 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
@@ -3378,6 +3392,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A111:H111"/>
     <mergeCell ref="A159:H159"/>
     <mergeCell ref="A145:H145"/>
     <mergeCell ref="I17:J17"/>
@@ -3394,15 +3417,6 @@
     <mergeCell ref="I43:L43"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A111:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
